--- a/Lista 2/sprawozdanie/wykresy/quick Wykresy.xlsx
+++ b/Lista 2/sprawozdanie/wykresy/quick Wykresy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubak\Desktop\c++\lista 2\pomiary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C7E638-2EAD-4E74-8BBF-2D07B8C63422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DA939D-C19A-4708-88D2-96B4EF24437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4908C66-B9E1-4058-B1B4-F0F3DF279E7D}"/>
   </bookViews>
@@ -1194,124 +1194,124 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>2462670</c:v>
+                  <c:v>1930945</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5110439</c:v>
+                  <c:v>3925019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8590940</c:v>
+                  <c:v>6015986</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11791639</c:v>
+                  <c:v>8379879</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16767921</c:v>
+                  <c:v>11191586</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19062745</c:v>
+                  <c:v>13753728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24523011</c:v>
+                  <c:v>16385117</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28160623</c:v>
+                  <c:v>20266076</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32339484</c:v>
+                  <c:v>22102922</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36692720</c:v>
+                  <c:v>26730283</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41463371</c:v>
+                  <c:v>29115417</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46683134</c:v>
+                  <c:v>33506847</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52603225</c:v>
+                  <c:v>37474601</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56012812</c:v>
+                  <c:v>39278913</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>64375075</c:v>
+                  <c:v>44013312</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70882991</c:v>
+                  <c:v>47513794</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>81059001</c:v>
+                  <c:v>51272159</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>81842231</c:v>
+                  <c:v>54004048</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90064861</c:v>
+                  <c:v>58409601</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>98229806</c:v>
+                  <c:v>67135283</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>106499860</c:v>
+                  <c:v>67426630</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>115657206</c:v>
+                  <c:v>74911173</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>119730184</c:v>
+                  <c:v>79887425</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>128829819</c:v>
+                  <c:v>82475195</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>135758853</c:v>
+                  <c:v>89270498</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>145929301</c:v>
+                  <c:v>94013557</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>149293201</c:v>
+                  <c:v>101985949</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>164808614</c:v>
+                  <c:v>102153800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>170083054</c:v>
+                  <c:v>110720374</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>177216171</c:v>
+                  <c:v>115695937</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>186897774</c:v>
+                  <c:v>120014928</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>201817094</c:v>
+                  <c:v>127019296</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>223768719</c:v>
+                  <c:v>133963406</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>220556620</c:v>
+                  <c:v>138817864</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>222613600</c:v>
+                  <c:v>147587338</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>236440309</c:v>
+                  <c:v>152368133</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>251202786</c:v>
+                  <c:v>156578704</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>260302584</c:v>
+                  <c:v>163270469</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>275749194</c:v>
+                  <c:v>173767700</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>292048084</c:v>
+                  <c:v>180025779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1909,7 +1909,7 @@
   <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,10 +1966,10 @@
         <v>25000</v>
       </c>
       <c r="G2">
-        <v>1570325</v>
+        <v>940625</v>
       </c>
       <c r="H2">
-        <v>892345</v>
+        <v>990320</v>
       </c>
       <c r="L2">
         <v>25000</v>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="N2">
         <f>SUM(G2:H2)</f>
-        <v>2462670</v>
+        <v>1930945</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1997,10 +1997,10 @@
         <v>50000</v>
       </c>
       <c r="G3">
-        <v>3243005</v>
+        <v>1895511</v>
       </c>
       <c r="H3">
-        <v>1867434</v>
+        <v>2029508</v>
       </c>
       <c r="L3">
         <v>50000</v>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="N3">
         <f>SUM(G3:H3)</f>
-        <v>5110439</v>
+        <v>3925019</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2028,10 +2028,10 @@
         <v>75000</v>
       </c>
       <c r="G4">
-        <v>5567487</v>
+        <v>2828932</v>
       </c>
       <c r="H4">
-        <v>3023453</v>
+        <v>3187054</v>
       </c>
       <c r="L4">
         <v>75000</v>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="N4">
         <f>SUM(G4:H4)</f>
-        <v>8590940</v>
+        <v>6015986</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2059,10 +2059,10 @@
         <v>100000</v>
       </c>
       <c r="G5">
-        <v>7443011</v>
+        <v>3830703</v>
       </c>
       <c r="H5">
-        <v>4348628</v>
+        <v>4549176</v>
       </c>
       <c r="L5">
         <v>100000</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N41" si="1">SUM(G5:H5)</f>
-        <v>11791639</v>
+        <v>8379879</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2090,10 +2090,10 @@
         <v>125000</v>
       </c>
       <c r="G6">
-        <v>10898590</v>
+        <v>5107226</v>
       </c>
       <c r="H6">
-        <v>5869331</v>
+        <v>6084360</v>
       </c>
       <c r="L6">
         <v>125000</v>
@@ -2104,7 +2104,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>16767921</v>
+        <v>11191586</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2121,10 +2121,10 @@
         <v>150000</v>
       </c>
       <c r="G7">
-        <v>12279570</v>
+        <v>6238901</v>
       </c>
       <c r="H7">
-        <v>6783175</v>
+        <v>7514827</v>
       </c>
       <c r="L7">
         <v>150000</v>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="N7">
         <f t="shared" si="1"/>
-        <v>19062745</v>
+        <v>13753728</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2152,10 +2152,10 @@
         <v>175000</v>
       </c>
       <c r="G8">
-        <v>16036922</v>
+        <v>7239661</v>
       </c>
       <c r="H8">
-        <v>8486089</v>
+        <v>9145456</v>
       </c>
       <c r="L8">
         <v>175000</v>
@@ -2166,7 +2166,7 @@
       </c>
       <c r="N8">
         <f t="shared" si="1"/>
-        <v>24523011</v>
+        <v>16385117</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2183,10 +2183,10 @@
         <v>200000</v>
       </c>
       <c r="G9">
-        <v>18068523</v>
+        <v>8942810</v>
       </c>
       <c r="H9">
-        <v>10092100</v>
+        <v>11323266</v>
       </c>
       <c r="L9">
         <v>200000</v>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="N9">
         <f t="shared" si="1"/>
-        <v>28160623</v>
+        <v>20266076</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2214,10 +2214,10 @@
         <v>225000</v>
       </c>
       <c r="G10">
-        <v>21044241</v>
+        <v>9431490</v>
       </c>
       <c r="H10">
-        <v>11295243</v>
+        <v>12671432</v>
       </c>
       <c r="L10">
         <v>225000</v>
@@ -2228,7 +2228,7 @@
       </c>
       <c r="N10">
         <f t="shared" si="1"/>
-        <v>32339484</v>
+        <v>22102922</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2245,10 +2245,10 @@
         <v>250000</v>
       </c>
       <c r="G11">
-        <v>23569116</v>
+        <v>11691806</v>
       </c>
       <c r="H11">
-        <v>13123604</v>
+        <v>15038477</v>
       </c>
       <c r="L11">
         <v>250000</v>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>36692720</v>
+        <v>26730283</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2276,10 +2276,10 @@
         <v>275000</v>
       </c>
       <c r="G12">
-        <v>27163247</v>
+        <v>12527370</v>
       </c>
       <c r="H12">
-        <v>14300124</v>
+        <v>16588047</v>
       </c>
       <c r="L12">
         <v>275000</v>
@@ -2290,7 +2290,7 @@
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>41463371</v>
+        <v>29115417</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2307,10 +2307,10 @@
         <v>300000</v>
       </c>
       <c r="G13">
-        <v>30662327</v>
+        <v>14479240</v>
       </c>
       <c r="H13">
-        <v>16020807</v>
+        <v>19027607</v>
       </c>
       <c r="L13">
         <v>300000</v>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>46683134</v>
+        <v>33506847</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2338,10 +2338,10 @@
         <v>325000</v>
       </c>
       <c r="G14">
-        <v>34539689</v>
+        <v>15725580</v>
       </c>
       <c r="H14">
-        <v>18063536</v>
+        <v>21749021</v>
       </c>
       <c r="L14">
         <v>325000</v>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="N14">
         <f t="shared" si="1"/>
-        <v>52603225</v>
+        <v>37474601</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2369,10 +2369,10 @@
         <v>350000</v>
       </c>
       <c r="G15">
-        <v>36685252</v>
+        <v>16177867</v>
       </c>
       <c r="H15">
-        <v>19327560</v>
+        <v>23101046</v>
       </c>
       <c r="L15">
         <v>350000</v>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="N15">
         <f t="shared" si="1"/>
-        <v>56012812</v>
+        <v>39278913</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2400,10 +2400,10 @@
         <v>375000</v>
       </c>
       <c r="G16">
-        <v>42558612</v>
+        <v>18265559</v>
       </c>
       <c r="H16">
-        <v>21816463</v>
+        <v>25747753</v>
       </c>
       <c r="L16">
         <v>375000</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N16">
         <f t="shared" si="1"/>
-        <v>64375075</v>
+        <v>44013312</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -2431,10 +2431,10 @@
         <v>400000</v>
       </c>
       <c r="G17">
-        <v>46964897</v>
+        <v>19623979</v>
       </c>
       <c r="H17">
-        <v>23918094</v>
+        <v>27889815</v>
       </c>
       <c r="L17">
         <v>400000</v>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="N17">
         <f t="shared" si="1"/>
-        <v>70882991</v>
+        <v>47513794</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -2462,10 +2462,10 @@
         <v>425000</v>
       </c>
       <c r="G18">
-        <v>53926963</v>
+        <v>20682123</v>
       </c>
       <c r="H18">
-        <v>27132038</v>
+        <v>30590036</v>
       </c>
       <c r="L18">
         <v>425000</v>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="N18">
         <f t="shared" si="1"/>
-        <v>81059001</v>
+        <v>51272159</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -2493,10 +2493,10 @@
         <v>450000</v>
       </c>
       <c r="G19">
-        <v>54144218</v>
+        <v>21362086</v>
       </c>
       <c r="H19">
-        <v>27698013</v>
+        <v>32641962</v>
       </c>
       <c r="L19">
         <v>450000</v>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>81842231</v>
+        <v>54004048</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -2524,10 +2524,10 @@
         <v>475000</v>
       </c>
       <c r="G20">
-        <v>59834393</v>
+        <v>22667913</v>
       </c>
       <c r="H20">
-        <v>30230468</v>
+        <v>35741688</v>
       </c>
       <c r="L20">
         <v>475000</v>
@@ -2538,7 +2538,7 @@
       </c>
       <c r="N20">
         <f t="shared" si="1"/>
-        <v>90064861</v>
+        <v>58409601</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -2555,10 +2555,10 @@
         <v>500000</v>
       </c>
       <c r="G21">
-        <v>65519686</v>
+        <v>27200803</v>
       </c>
       <c r="H21">
-        <v>32710120</v>
+        <v>39934480</v>
       </c>
       <c r="L21">
         <v>500000</v>
@@ -2569,7 +2569,7 @@
       </c>
       <c r="N21">
         <f t="shared" si="1"/>
-        <v>98229806</v>
+        <v>67135283</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -2586,10 +2586,10 @@
         <v>525000</v>
       </c>
       <c r="G22">
-        <v>71395476</v>
+        <v>26206265</v>
       </c>
       <c r="H22">
-        <v>35104384</v>
+        <v>41220365</v>
       </c>
       <c r="L22">
         <v>525000</v>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="N22">
         <f t="shared" si="1"/>
-        <v>106499860</v>
+        <v>67426630</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -2617,10 +2617,10 @@
         <v>550000</v>
       </c>
       <c r="G23">
-        <v>77654472</v>
+        <v>29652915</v>
       </c>
       <c r="H23">
-        <v>38002734</v>
+        <v>45258258</v>
       </c>
       <c r="L23">
         <v>550000</v>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="N23">
         <f t="shared" si="1"/>
-        <v>115657206</v>
+        <v>74911173</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2648,10 +2648,10 @@
         <v>575000</v>
       </c>
       <c r="G24">
-        <v>80290570</v>
+        <v>31237419</v>
       </c>
       <c r="H24">
-        <v>39439614</v>
+        <v>48650006</v>
       </c>
       <c r="L24">
         <v>575000</v>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="N24">
         <f t="shared" si="1"/>
-        <v>119730184</v>
+        <v>79887425</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -2679,10 +2679,10 @@
         <v>600000</v>
       </c>
       <c r="G25">
-        <v>86217047</v>
+        <v>31854566</v>
       </c>
       <c r="H25">
-        <v>42612772</v>
+        <v>50620629</v>
       </c>
       <c r="L25">
         <v>600000</v>
@@ -2693,7 +2693,7 @@
       </c>
       <c r="N25">
         <f t="shared" si="1"/>
-        <v>128829819</v>
+        <v>82475195</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -2710,10 +2710,10 @@
         <v>625000</v>
       </c>
       <c r="G26">
-        <v>91015013</v>
+        <v>34537990</v>
       </c>
       <c r="H26">
-        <v>44743840</v>
+        <v>54732508</v>
       </c>
       <c r="L26">
         <v>625000</v>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="N26">
         <f t="shared" si="1"/>
-        <v>135758853</v>
+        <v>89270498</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -2741,10 +2741,10 @@
         <v>650000</v>
       </c>
       <c r="G27">
-        <v>98503768</v>
+        <v>35798192</v>
       </c>
       <c r="H27">
-        <v>47425533</v>
+        <v>58215365</v>
       </c>
       <c r="L27">
         <v>650000</v>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="N27">
         <f t="shared" si="1"/>
-        <v>145929301</v>
+        <v>94013557</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2772,10 +2772,10 @@
         <v>675000</v>
       </c>
       <c r="G28">
-        <v>99637953</v>
+        <v>39382465</v>
       </c>
       <c r="H28">
-        <v>49655248</v>
+        <v>62603484</v>
       </c>
       <c r="L28">
         <v>675000</v>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="N28">
         <f t="shared" si="1"/>
-        <v>149293201</v>
+        <v>101985949</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -2803,10 +2803,10 @@
         <v>700000</v>
       </c>
       <c r="G29">
-        <v>111504304</v>
+        <v>38033011</v>
       </c>
       <c r="H29">
-        <v>53304310</v>
+        <v>64120789</v>
       </c>
       <c r="L29">
         <v>700000</v>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="N29">
         <f t="shared" si="1"/>
-        <v>164808614</v>
+        <v>102153800</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -2834,10 +2834,10 @@
         <v>725000</v>
       </c>
       <c r="G30">
-        <v>114477250</v>
+        <v>42054907</v>
       </c>
       <c r="H30">
-        <v>55605804</v>
+        <v>68665467</v>
       </c>
       <c r="L30">
         <v>725000</v>
@@ -2848,7 +2848,7 @@
       </c>
       <c r="N30">
         <f t="shared" si="1"/>
-        <v>170083054</v>
+        <v>110720374</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -2865,10 +2865,10 @@
         <v>750000</v>
       </c>
       <c r="G31">
-        <v>119452277</v>
+        <v>42797005</v>
       </c>
       <c r="H31">
-        <v>57763894</v>
+        <v>72898932</v>
       </c>
       <c r="L31">
         <v>750000</v>
@@ -2879,7 +2879,7 @@
       </c>
       <c r="N31">
         <f t="shared" si="1"/>
-        <v>177216171</v>
+        <v>115695937</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -2896,10 +2896,10 @@
         <v>775000</v>
       </c>
       <c r="G32">
-        <v>126263960</v>
+        <v>44011903</v>
       </c>
       <c r="H32">
-        <v>60633814</v>
+        <v>76003025</v>
       </c>
       <c r="L32">
         <v>775000</v>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="N32">
         <f t="shared" si="1"/>
-        <v>186897774</v>
+        <v>120014928</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2927,10 +2927,10 @@
         <v>800000</v>
       </c>
       <c r="G33">
-        <v>136313426</v>
+        <v>46858856</v>
       </c>
       <c r="H33">
-        <v>65503668</v>
+        <v>80160440</v>
       </c>
       <c r="L33">
         <v>800000</v>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="N33">
         <f t="shared" si="1"/>
-        <v>201817094</v>
+        <v>127019296</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2958,10 +2958,10 @@
         <v>825000</v>
       </c>
       <c r="G34">
-        <v>152324097</v>
+        <v>48937093</v>
       </c>
       <c r="H34">
-        <v>71444622</v>
+        <v>85026313</v>
       </c>
       <c r="L34">
         <v>825000</v>
@@ -2972,7 +2972,7 @@
       </c>
       <c r="N34">
         <f t="shared" si="1"/>
-        <v>223768719</v>
+        <v>133963406</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
@@ -2989,10 +2989,10 @@
         <v>850000</v>
       </c>
       <c r="G35">
-        <v>149568912</v>
+        <v>50428823</v>
       </c>
       <c r="H35">
-        <v>70987708</v>
+        <v>88389041</v>
       </c>
       <c r="L35">
         <v>850000</v>
@@ -3003,7 +3003,7 @@
       </c>
       <c r="N35">
         <f t="shared" si="1"/>
-        <v>220556620</v>
+        <v>138817864</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
@@ -3020,10 +3020,10 @@
         <v>875000</v>
       </c>
       <c r="G36">
-        <v>149552030</v>
+        <v>53898727</v>
       </c>
       <c r="H36">
-        <v>73061570</v>
+        <v>93688611</v>
       </c>
       <c r="L36">
         <v>875000</v>
@@ -3034,7 +3034,7 @@
       </c>
       <c r="N36">
         <f t="shared" si="1"/>
-        <v>222613600</v>
+        <v>147587338</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
@@ -3051,10 +3051,10 @@
         <v>900000</v>
       </c>
       <c r="G37">
-        <v>159811003</v>
+        <v>55139263</v>
       </c>
       <c r="H37">
-        <v>76629306</v>
+        <v>97228870</v>
       </c>
       <c r="L37">
         <v>900000</v>
@@ -3065,7 +3065,7 @@
       </c>
       <c r="N37">
         <f t="shared" si="1"/>
-        <v>236440309</v>
+        <v>152368133</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3082,10 +3082,10 @@
         <v>925000</v>
       </c>
       <c r="G38">
-        <v>171294210</v>
+        <v>55829868</v>
       </c>
       <c r="H38">
-        <v>79908576</v>
+        <v>100748836</v>
       </c>
       <c r="L38">
         <v>925000</v>
@@ -3096,7 +3096,7 @@
       </c>
       <c r="N38">
         <f t="shared" si="1"/>
-        <v>251202786</v>
+        <v>156578704</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3113,10 +3113,10 @@
         <v>950000</v>
       </c>
       <c r="G39">
-        <v>177117292</v>
+        <v>57625595</v>
       </c>
       <c r="H39">
-        <v>83185292</v>
+        <v>105644874</v>
       </c>
       <c r="L39">
         <v>950000</v>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="N39">
         <f t="shared" si="1"/>
-        <v>260302584</v>
+        <v>163270469</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
@@ -3144,10 +3144,10 @@
         <v>975000</v>
       </c>
       <c r="G40">
-        <v>187828902</v>
+        <v>61549820</v>
       </c>
       <c r="H40">
-        <v>87920292</v>
+        <v>112217880</v>
       </c>
       <c r="L40">
         <v>975000</v>
@@ -3158,7 +3158,7 @@
       </c>
       <c r="N40">
         <f t="shared" si="1"/>
-        <v>275749194</v>
+        <v>173767700</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
@@ -3175,10 +3175,10 @@
         <v>1000000</v>
       </c>
       <c r="G41">
-        <v>199766542</v>
+        <v>64328131</v>
       </c>
       <c r="H41">
-        <v>92281542</v>
+        <v>115697648</v>
       </c>
       <c r="L41">
         <v>1000000</v>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="N41">
         <f t="shared" si="1"/>
-        <v>292048084</v>
+        <v>180025779</v>
       </c>
     </row>
   </sheetData>
